--- a/trunk/excel-2007/contoh-if-01.xlsx
+++ b/trunk/excel-2007/contoh-if-01.xlsx
@@ -7,16 +7,50 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="8580"/>
   </bookViews>
   <sheets>
-    <sheet name="Penggunaan IF" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Penggunaan IF 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Penggunaan IF 2" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>BelajarExcel.info</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>BelajarExcel.info:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Penggunaan IF disini ada di kolom ini.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Kode Barang 1</t>
   </si>
@@ -88,13 +122,76 @@
   </si>
   <si>
     <t>Kacang Polong</t>
+  </si>
+  <si>
+    <t>Mie Instan</t>
+  </si>
+  <si>
+    <t>Beras</t>
+  </si>
+  <si>
+    <t>Singkong</t>
+  </si>
+  <si>
+    <t>Bayam</t>
+  </si>
+  <si>
+    <t>Kangkung</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Tahu</t>
+  </si>
+  <si>
+    <t>Jagung</t>
+  </si>
+  <si>
+    <t>Bawang</t>
+  </si>
+  <si>
+    <t>Tepung Terigus</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Bayar</t>
+  </si>
+  <si>
+    <t>Kode Barang</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Diskon</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +199,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,12 +243,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,196 +562,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2*D2</f>
+        <v>400</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2*IF(C2="Y",0.9,1)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3">
+        <v>300</v>
+      </c>
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F4" si="0">E3*D3</f>
+        <v>900</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G4" si="1">F3*IF(C3="Y",0.9,1)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
